--- a/rates/public/Mayo 2025.xlsx
+++ b/rates/public/Mayo 2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Desktop\tarifas\rates\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3994312-76A7-46CC-AB1F-C7DFB38A5FDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A5411F8-13F3-418D-A389-13FEEE524568}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -241,12 +241,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -556,8 +553,8 @@
   <dimension ref="A1:P457"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A429" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M435" sqref="M435"/>
+      <pane ySplit="1" topLeftCell="A443" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2:B457"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11845,7 +11842,7 @@
       <c r="D222" t="s">
         <v>19</v>
       </c>
-      <c r="E222" t="s">
+      <c r="E222" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F222">
@@ -11896,7 +11893,7 @@
       <c r="D223" t="s">
         <v>21</v>
       </c>
-      <c r="E223" t="s">
+      <c r="E223" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F223">
@@ -11947,7 +11944,7 @@
       <c r="D224" t="s">
         <v>22</v>
       </c>
-      <c r="E224" t="s">
+      <c r="E224" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F224">
@@ -11998,7 +11995,7 @@
       <c r="D225" t="s">
         <v>23</v>
       </c>
-      <c r="E225" t="s">
+      <c r="E225" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F225">
@@ -12049,7 +12046,7 @@
       <c r="D226" t="s">
         <v>23</v>
       </c>
-      <c r="E226" t="s">
+      <c r="E226" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F226">
@@ -12100,7 +12097,7 @@
       <c r="D227" t="s">
         <v>19</v>
       </c>
-      <c r="E227" t="s">
+      <c r="E227" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F227">
@@ -12151,7 +12148,7 @@
       <c r="D228" t="s">
         <v>21</v>
       </c>
-      <c r="E228" t="s">
+      <c r="E228" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F228">
@@ -12202,7 +12199,7 @@
       <c r="D229" t="s">
         <v>22</v>
       </c>
-      <c r="E229" t="s">
+      <c r="E229" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F229">
@@ -12253,7 +12250,7 @@
       <c r="D230" t="s">
         <v>23</v>
       </c>
-      <c r="E230" t="s">
+      <c r="E230" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F230">
@@ -12304,7 +12301,7 @@
       <c r="D231" t="s">
         <v>23</v>
       </c>
-      <c r="E231" t="s">
+      <c r="E231" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F231">
@@ -12355,7 +12352,7 @@
       <c r="D232" t="s">
         <v>19</v>
       </c>
-      <c r="E232" t="s">
+      <c r="E232" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F232">
@@ -12406,7 +12403,7 @@
       <c r="D233" t="s">
         <v>21</v>
       </c>
-      <c r="E233" t="s">
+      <c r="E233" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F233">
@@ -12457,7 +12454,7 @@
       <c r="D234" t="s">
         <v>22</v>
       </c>
-      <c r="E234" t="s">
+      <c r="E234" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F234">
@@ -12508,7 +12505,7 @@
       <c r="D235" t="s">
         <v>23</v>
       </c>
-      <c r="E235" t="s">
+      <c r="E235" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F235">
@@ -12559,7 +12556,7 @@
       <c r="D236" t="s">
         <v>23</v>
       </c>
-      <c r="E236" t="s">
+      <c r="E236" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F236">
@@ -12610,7 +12607,7 @@
       <c r="D237" t="s">
         <v>19</v>
       </c>
-      <c r="E237" t="s">
+      <c r="E237" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F237">
@@ -12661,7 +12658,7 @@
       <c r="D238" t="s">
         <v>21</v>
       </c>
-      <c r="E238" t="s">
+      <c r="E238" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F238">
@@ -12712,7 +12709,7 @@
       <c r="D239" t="s">
         <v>22</v>
       </c>
-      <c r="E239" t="s">
+      <c r="E239" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F239">
@@ -12763,7 +12760,7 @@
       <c r="D240" t="s">
         <v>23</v>
       </c>
-      <c r="E240" t="s">
+      <c r="E240" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F240">
@@ -12814,7 +12811,7 @@
       <c r="D241" t="s">
         <v>23</v>
       </c>
-      <c r="E241" t="s">
+      <c r="E241" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F241">
@@ -12865,7 +12862,7 @@
       <c r="D242" t="s">
         <v>19</v>
       </c>
-      <c r="E242" t="s">
+      <c r="E242" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F242">
@@ -12916,7 +12913,7 @@
       <c r="D243" t="s">
         <v>21</v>
       </c>
-      <c r="E243" t="s">
+      <c r="E243" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F243">
@@ -12967,7 +12964,7 @@
       <c r="D244" t="s">
         <v>22</v>
       </c>
-      <c r="E244" t="s">
+      <c r="E244" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F244">
@@ -13018,7 +13015,7 @@
       <c r="D245" t="s">
         <v>22</v>
       </c>
-      <c r="E245" t="s">
+      <c r="E245" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F245">
@@ -13069,7 +13066,7 @@
       <c r="D246" t="s">
         <v>23</v>
       </c>
-      <c r="E246" t="s">
+      <c r="E246" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F246">
@@ -13120,7 +13117,7 @@
       <c r="D247" t="s">
         <v>23</v>
       </c>
-      <c r="E247" t="s">
+      <c r="E247" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F247">
@@ -13171,7 +13168,7 @@
       <c r="D248" t="s">
         <v>19</v>
       </c>
-      <c r="E248" t="s">
+      <c r="E248" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F248">
@@ -13222,7 +13219,7 @@
       <c r="D249" t="s">
         <v>21</v>
       </c>
-      <c r="E249" t="s">
+      <c r="E249" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F249">
@@ -13273,7 +13270,7 @@
       <c r="D250" t="s">
         <v>22</v>
       </c>
-      <c r="E250" t="s">
+      <c r="E250" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F250">
@@ -13324,7 +13321,7 @@
       <c r="D251" t="s">
         <v>23</v>
       </c>
-      <c r="E251" t="s">
+      <c r="E251" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F251">
@@ -13375,7 +13372,7 @@
       <c r="D252" t="s">
         <v>23</v>
       </c>
-      <c r="E252" t="s">
+      <c r="E252" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F252">
@@ -13426,7 +13423,7 @@
       <c r="D253" t="s">
         <v>19</v>
       </c>
-      <c r="E253" t="s">
+      <c r="E253" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F253">
@@ -13477,7 +13474,7 @@
       <c r="D254" t="s">
         <v>21</v>
       </c>
-      <c r="E254" t="s">
+      <c r="E254" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F254">
@@ -13528,7 +13525,7 @@
       <c r="D255" t="s">
         <v>22</v>
       </c>
-      <c r="E255" t="s">
+      <c r="E255" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F255">
@@ -13579,7 +13576,7 @@
       <c r="D256" t="s">
         <v>23</v>
       </c>
-      <c r="E256" t="s">
+      <c r="E256" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F256">
@@ -13630,7 +13627,7 @@
       <c r="D257" t="s">
         <v>23</v>
       </c>
-      <c r="E257" t="s">
+      <c r="E257" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F257">
@@ -13681,7 +13678,7 @@
       <c r="D258" t="s">
         <v>19</v>
       </c>
-      <c r="E258" t="s">
+      <c r="E258" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F258">
@@ -13732,7 +13729,7 @@
       <c r="D259" t="s">
         <v>21</v>
       </c>
-      <c r="E259" t="s">
+      <c r="E259" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F259">
@@ -13783,7 +13780,7 @@
       <c r="D260" t="s">
         <v>22</v>
       </c>
-      <c r="E260" t="s">
+      <c r="E260" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F260">
@@ -13834,7 +13831,7 @@
       <c r="D261" t="s">
         <v>23</v>
       </c>
-      <c r="E261" t="s">
+      <c r="E261" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F261">
@@ -13885,7 +13882,7 @@
       <c r="D262" t="s">
         <v>23</v>
       </c>
-      <c r="E262" t="s">
+      <c r="E262" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F262">
@@ -13936,7 +13933,7 @@
       <c r="D263" t="s">
         <v>19</v>
       </c>
-      <c r="E263" t="s">
+      <c r="E263" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F263">
@@ -13987,7 +13984,7 @@
       <c r="D264" t="s">
         <v>21</v>
       </c>
-      <c r="E264" t="s">
+      <c r="E264" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F264">
@@ -14038,7 +14035,7 @@
       <c r="D265" t="s">
         <v>22</v>
       </c>
-      <c r="E265" t="s">
+      <c r="E265" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F265">
@@ -14089,7 +14086,7 @@
       <c r="D266" t="s">
         <v>23</v>
       </c>
-      <c r="E266" t="s">
+      <c r="E266" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F266">
@@ -14140,7 +14137,7 @@
       <c r="D267" t="s">
         <v>23</v>
       </c>
-      <c r="E267" t="s">
+      <c r="E267" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F267">
@@ -14191,7 +14188,7 @@
       <c r="D268" t="s">
         <v>23</v>
       </c>
-      <c r="E268" t="s">
+      <c r="E268" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F268">
@@ -14242,7 +14239,7 @@
       <c r="D269" t="s">
         <v>23</v>
       </c>
-      <c r="E269" t="s">
+      <c r="E269" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F269">
@@ -14293,7 +14290,7 @@
       <c r="D270" t="s">
         <v>19</v>
       </c>
-      <c r="E270" t="s">
+      <c r="E270" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F270">
@@ -14344,7 +14341,7 @@
       <c r="D271" t="s">
         <v>21</v>
       </c>
-      <c r="E271" t="s">
+      <c r="E271" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F271">
@@ -14395,7 +14392,7 @@
       <c r="D272" t="s">
         <v>22</v>
       </c>
-      <c r="E272" t="s">
+      <c r="E272" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F272">
@@ -14446,7 +14443,7 @@
       <c r="D273" t="s">
         <v>23</v>
       </c>
-      <c r="E273" t="s">
+      <c r="E273" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F273">
@@ -14497,7 +14494,7 @@
       <c r="D274" t="s">
         <v>23</v>
       </c>
-      <c r="E274" t="s">
+      <c r="E274" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F274">
@@ -14548,7 +14545,7 @@
       <c r="D275" t="s">
         <v>19</v>
       </c>
-      <c r="E275" t="s">
+      <c r="E275" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F275">
@@ -14599,7 +14596,7 @@
       <c r="D276" t="s">
         <v>21</v>
       </c>
-      <c r="E276" t="s">
+      <c r="E276" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F276">
@@ -14650,7 +14647,7 @@
       <c r="D277" t="s">
         <v>22</v>
       </c>
-      <c r="E277" t="s">
+      <c r="E277" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F277">
@@ -14701,7 +14698,7 @@
       <c r="D278" t="s">
         <v>23</v>
       </c>
-      <c r="E278" t="s">
+      <c r="E278" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F278">
@@ -14752,7 +14749,7 @@
       <c r="D279" t="s">
         <v>23</v>
       </c>
-      <c r="E279" t="s">
+      <c r="E279" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F279">
@@ -14803,7 +14800,7 @@
       <c r="D280" t="s">
         <v>19</v>
       </c>
-      <c r="E280" t="s">
+      <c r="E280" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F280">
@@ -14854,7 +14851,7 @@
       <c r="D281" t="s">
         <v>21</v>
       </c>
-      <c r="E281" t="s">
+      <c r="E281" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F281">
@@ -14905,7 +14902,7 @@
       <c r="D282" t="s">
         <v>22</v>
       </c>
-      <c r="E282" t="s">
+      <c r="E282" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F282">
@@ -14956,7 +14953,7 @@
       <c r="D283" t="s">
         <v>23</v>
       </c>
-      <c r="E283" t="s">
+      <c r="E283" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F283">
@@ -15007,7 +15004,7 @@
       <c r="D284" t="s">
         <v>23</v>
       </c>
-      <c r="E284" t="s">
+      <c r="E284" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F284">
@@ -15058,7 +15055,7 @@
       <c r="D285" t="s">
         <v>19</v>
       </c>
-      <c r="E285" t="s">
+      <c r="E285" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F285">
@@ -15109,7 +15106,7 @@
       <c r="D286" t="s">
         <v>21</v>
       </c>
-      <c r="E286" t="s">
+      <c r="E286" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F286">
@@ -15160,7 +15157,7 @@
       <c r="D287" t="s">
         <v>22</v>
       </c>
-      <c r="E287" t="s">
+      <c r="E287" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F287">
@@ -15211,7 +15208,7 @@
       <c r="D288" t="s">
         <v>23</v>
       </c>
-      <c r="E288" t="s">
+      <c r="E288" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F288">
@@ -15262,7 +15259,7 @@
       <c r="D289" t="s">
         <v>23</v>
       </c>
-      <c r="E289" t="s">
+      <c r="E289" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F289">
@@ -15313,7 +15310,7 @@
       <c r="D290" t="s">
         <v>19</v>
       </c>
-      <c r="E290" t="s">
+      <c r="E290" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F290">
@@ -15364,7 +15361,7 @@
       <c r="D291" t="s">
         <v>21</v>
       </c>
-      <c r="E291" t="s">
+      <c r="E291" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F291">
@@ -15415,7 +15412,7 @@
       <c r="D292" t="s">
         <v>22</v>
       </c>
-      <c r="E292" t="s">
+      <c r="E292" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F292">
@@ -15466,7 +15463,7 @@
       <c r="D293" t="s">
         <v>23</v>
       </c>
-      <c r="E293" t="s">
+      <c r="E293" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F293">
@@ -15517,7 +15514,7 @@
       <c r="D294" t="s">
         <v>23</v>
       </c>
-      <c r="E294" t="s">
+      <c r="E294" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F294">
@@ -15568,7 +15565,7 @@
       <c r="D295" t="s">
         <v>19</v>
       </c>
-      <c r="E295" t="s">
+      <c r="E295" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F295">
@@ -15619,7 +15616,7 @@
       <c r="D296" t="s">
         <v>21</v>
       </c>
-      <c r="E296" t="s">
+      <c r="E296" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F296">
@@ -15670,7 +15667,7 @@
       <c r="D297" t="s">
         <v>22</v>
       </c>
-      <c r="E297" t="s">
+      <c r="E297" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F297">
@@ -15721,7 +15718,7 @@
       <c r="D298" t="s">
         <v>23</v>
       </c>
-      <c r="E298" t="s">
+      <c r="E298" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F298">
@@ -15772,7 +15769,7 @@
       <c r="D299" t="s">
         <v>23</v>
       </c>
-      <c r="E299" t="s">
+      <c r="E299" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F299">
@@ -15823,7 +15820,7 @@
       <c r="D300" t="s">
         <v>19</v>
       </c>
-      <c r="E300" t="s">
+      <c r="E300" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F300">
@@ -15874,7 +15871,7 @@
       <c r="D301" t="s">
         <v>21</v>
       </c>
-      <c r="E301" t="s">
+      <c r="E301" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F301">
@@ -15925,7 +15922,7 @@
       <c r="D302" t="s">
         <v>23</v>
       </c>
-      <c r="E302" t="s">
+      <c r="E302" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F302">
@@ -15976,7 +15973,7 @@
       <c r="D303" t="s">
         <v>23</v>
       </c>
-      <c r="E303" t="s">
+      <c r="E303" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F303">
@@ -16027,7 +16024,7 @@
       <c r="D304" t="s">
         <v>19</v>
       </c>
-      <c r="E304" t="s">
+      <c r="E304" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F304">
@@ -16078,7 +16075,7 @@
       <c r="D305" t="s">
         <v>21</v>
       </c>
-      <c r="E305" t="s">
+      <c r="E305" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F305">
@@ -16129,7 +16126,7 @@
       <c r="D306" t="s">
         <v>22</v>
       </c>
-      <c r="E306" t="s">
+      <c r="E306" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F306">
@@ -16180,7 +16177,7 @@
       <c r="D307" t="s">
         <v>23</v>
       </c>
-      <c r="E307" t="s">
+      <c r="E307" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F307">
@@ -16231,7 +16228,7 @@
       <c r="D308" t="s">
         <v>23</v>
       </c>
-      <c r="E308" t="s">
+      <c r="E308" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F308">
@@ -16282,7 +16279,7 @@
       <c r="D309" t="s">
         <v>19</v>
       </c>
-      <c r="E309" t="s">
+      <c r="E309" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F309">
@@ -16333,7 +16330,7 @@
       <c r="D310" t="s">
         <v>21</v>
       </c>
-      <c r="E310" t="s">
+      <c r="E310" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F310">
@@ -16384,7 +16381,7 @@
       <c r="D311" t="s">
         <v>22</v>
       </c>
-      <c r="E311" t="s">
+      <c r="E311" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F311">
@@ -16435,7 +16432,7 @@
       <c r="D312" t="s">
         <v>23</v>
       </c>
-      <c r="E312" t="s">
+      <c r="E312" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F312">
@@ -16486,7 +16483,7 @@
       <c r="D313" t="s">
         <v>23</v>
       </c>
-      <c r="E313" t="s">
+      <c r="E313" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F313">
@@ -16537,7 +16534,7 @@
       <c r="D314" t="s">
         <v>19</v>
       </c>
-      <c r="E314" t="s">
+      <c r="E314" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F314">
@@ -16588,7 +16585,7 @@
       <c r="D315" t="s">
         <v>21</v>
       </c>
-      <c r="E315" t="s">
+      <c r="E315" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F315">
@@ -16639,7 +16636,7 @@
       <c r="D316" t="s">
         <v>22</v>
       </c>
-      <c r="E316" t="s">
+      <c r="E316" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F316">
@@ -16690,7 +16687,7 @@
       <c r="D317" t="s">
         <v>23</v>
       </c>
-      <c r="E317" t="s">
+      <c r="E317" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F317">
@@ -16741,7 +16738,7 @@
       <c r="D318" t="s">
         <v>23</v>
       </c>
-      <c r="E318" t="s">
+      <c r="E318" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F318">
@@ -16792,7 +16789,7 @@
       <c r="D319" t="s">
         <v>19</v>
       </c>
-      <c r="E319" t="s">
+      <c r="E319" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F319">
@@ -16843,7 +16840,7 @@
       <c r="D320" t="s">
         <v>21</v>
       </c>
-      <c r="E320" t="s">
+      <c r="E320" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F320">
@@ -16894,7 +16891,7 @@
       <c r="D321" t="s">
         <v>22</v>
       </c>
-      <c r="E321" t="s">
+      <c r="E321" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F321">
@@ -16945,7 +16942,7 @@
       <c r="D322" t="s">
         <v>23</v>
       </c>
-      <c r="E322" t="s">
+      <c r="E322" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F322">
@@ -16996,7 +16993,7 @@
       <c r="D323" t="s">
         <v>23</v>
       </c>
-      <c r="E323" t="s">
+      <c r="E323" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F323">
@@ -17047,7 +17044,7 @@
       <c r="D324" t="s">
         <v>19</v>
       </c>
-      <c r="E324" t="s">
+      <c r="E324" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F324">
@@ -17098,7 +17095,7 @@
       <c r="D325" t="s">
         <v>21</v>
       </c>
-      <c r="E325" t="s">
+      <c r="E325" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F325">
@@ -17149,7 +17146,7 @@
       <c r="D326" t="s">
         <v>22</v>
       </c>
-      <c r="E326" t="s">
+      <c r="E326" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F326">
@@ -17200,7 +17197,7 @@
       <c r="D327" t="s">
         <v>23</v>
       </c>
-      <c r="E327" t="s">
+      <c r="E327" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F327">
@@ -17251,7 +17248,7 @@
       <c r="D328" t="s">
         <v>23</v>
       </c>
-      <c r="E328" t="s">
+      <c r="E328" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F328">
@@ -17302,7 +17299,7 @@
       <c r="D329" t="s">
         <v>19</v>
       </c>
-      <c r="E329" t="s">
+      <c r="E329" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F329">
@@ -17353,7 +17350,7 @@
       <c r="D330" t="s">
         <v>21</v>
       </c>
-      <c r="E330" t="s">
+      <c r="E330" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F330">
@@ -17404,7 +17401,7 @@
       <c r="D331" t="s">
         <v>22</v>
       </c>
-      <c r="E331" t="s">
+      <c r="E331" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F331">
@@ -17455,7 +17452,7 @@
       <c r="D332" t="s">
         <v>23</v>
       </c>
-      <c r="E332" t="s">
+      <c r="E332" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F332">
@@ -17506,7 +17503,7 @@
       <c r="D333" t="s">
         <v>23</v>
       </c>
-      <c r="E333" t="s">
+      <c r="E333" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F333">
@@ -17557,7 +17554,7 @@
       <c r="D334" t="s">
         <v>19</v>
       </c>
-      <c r="E334" t="s">
+      <c r="E334" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F334">
@@ -17608,7 +17605,7 @@
       <c r="D335" t="s">
         <v>21</v>
       </c>
-      <c r="E335" t="s">
+      <c r="E335" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F335">
@@ -17659,7 +17656,7 @@
       <c r="D336" t="s">
         <v>22</v>
       </c>
-      <c r="E336" t="s">
+      <c r="E336" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F336">
@@ -17710,7 +17707,7 @@
       <c r="D337" t="s">
         <v>23</v>
       </c>
-      <c r="E337" t="s">
+      <c r="E337" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F337">
@@ -17761,7 +17758,7 @@
       <c r="D338" t="s">
         <v>23</v>
       </c>
-      <c r="E338" t="s">
+      <c r="E338" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F338">
@@ -17812,7 +17809,7 @@
       <c r="D339" t="s">
         <v>19</v>
       </c>
-      <c r="E339" t="s">
+      <c r="E339" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F339">
@@ -17863,7 +17860,7 @@
       <c r="D340" t="s">
         <v>21</v>
       </c>
-      <c r="E340" t="s">
+      <c r="E340" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F340">
@@ -17914,7 +17911,7 @@
       <c r="D341" t="s">
         <v>22</v>
       </c>
-      <c r="E341" t="s">
+      <c r="E341" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F341">
@@ -17965,7 +17962,7 @@
       <c r="D342" t="s">
         <v>23</v>
       </c>
-      <c r="E342" s="3">
+      <c r="E342" s="2">
         <v>3</v>
       </c>
       <c r="F342">
@@ -18016,7 +18013,7 @@
       <c r="D343" t="s">
         <v>23</v>
       </c>
-      <c r="E343" s="3">
+      <c r="E343" s="2">
         <v>2</v>
       </c>
       <c r="F343">
@@ -18067,7 +18064,7 @@
       <c r="D344" t="s">
         <v>19</v>
       </c>
-      <c r="E344" s="3">
+      <c r="E344" s="2">
         <v>1</v>
       </c>
       <c r="F344">
@@ -18118,7 +18115,7 @@
       <c r="D345" t="s">
         <v>21</v>
       </c>
-      <c r="E345" s="3">
+      <c r="E345" s="2">
         <v>1</v>
       </c>
       <c r="F345">
@@ -18169,7 +18166,7 @@
       <c r="D346" t="s">
         <v>22</v>
       </c>
-      <c r="E346" s="3">
+      <c r="E346" s="2">
         <v>1</v>
       </c>
       <c r="F346">
@@ -18220,7 +18217,7 @@
       <c r="D347" t="s">
         <v>23</v>
       </c>
-      <c r="E347" s="3">
+      <c r="E347" s="2">
         <v>3</v>
       </c>
       <c r="F347">
@@ -18271,7 +18268,7 @@
       <c r="D348" t="s">
         <v>23</v>
       </c>
-      <c r="E348" s="3">
+      <c r="E348" s="2">
         <v>2</v>
       </c>
       <c r="F348">
@@ -18322,7 +18319,7 @@
       <c r="D349" t="s">
         <v>19</v>
       </c>
-      <c r="E349" s="3">
+      <c r="E349" s="2">
         <v>1</v>
       </c>
       <c r="F349">
@@ -18373,7 +18370,7 @@
       <c r="D350" t="s">
         <v>21</v>
       </c>
-      <c r="E350" s="3">
+      <c r="E350" s="2">
         <v>1</v>
       </c>
       <c r="F350">
@@ -18424,7 +18421,7 @@
       <c r="D351" t="s">
         <v>22</v>
       </c>
-      <c r="E351" s="3">
+      <c r="E351" s="2">
         <v>1</v>
       </c>
       <c r="F351">
@@ -18475,7 +18472,7 @@
       <c r="D352" t="s">
         <v>23</v>
       </c>
-      <c r="E352" s="3">
+      <c r="E352" s="2">
         <v>2</v>
       </c>
       <c r="F352">
@@ -18526,7 +18523,7 @@
       <c r="D353" t="s">
         <v>19</v>
       </c>
-      <c r="E353" s="3">
+      <c r="E353" s="2">
         <v>1</v>
       </c>
       <c r="F353">
@@ -18577,7 +18574,7 @@
       <c r="D354" t="s">
         <v>21</v>
       </c>
-      <c r="E354" s="3">
+      <c r="E354" s="2">
         <v>1</v>
       </c>
       <c r="F354">
@@ -18628,7 +18625,7 @@
       <c r="D355" t="s">
         <v>22</v>
       </c>
-      <c r="E355" s="3">
+      <c r="E355" s="2">
         <v>1</v>
       </c>
       <c r="F355">
@@ -18679,7 +18676,7 @@
       <c r="D356" t="s">
         <v>23</v>
       </c>
-      <c r="E356" s="3">
+      <c r="E356" s="2">
         <v>3</v>
       </c>
       <c r="F356">
@@ -18730,7 +18727,7 @@
       <c r="D357" t="s">
         <v>23</v>
       </c>
-      <c r="E357" s="3">
+      <c r="E357" s="2">
         <v>2</v>
       </c>
       <c r="F357">
@@ -18781,7 +18778,7 @@
       <c r="D358" t="s">
         <v>19</v>
       </c>
-      <c r="E358" s="3">
+      <c r="E358" s="2">
         <v>1</v>
       </c>
       <c r="F358">
@@ -18832,7 +18829,7 @@
       <c r="D359" t="s">
         <v>21</v>
       </c>
-      <c r="E359" s="3">
+      <c r="E359" s="2">
         <v>1</v>
       </c>
       <c r="F359">
@@ -18883,7 +18880,7 @@
       <c r="D360" t="s">
         <v>22</v>
       </c>
-      <c r="E360" s="3">
+      <c r="E360" s="2">
         <v>1</v>
       </c>
       <c r="F360">
@@ -18934,7 +18931,7 @@
       <c r="D361" t="s">
         <v>23</v>
       </c>
-      <c r="E361" s="3">
+      <c r="E361" s="2">
         <v>3</v>
       </c>
       <c r="F361">
@@ -18985,7 +18982,7 @@
       <c r="D362" t="s">
         <v>23</v>
       </c>
-      <c r="E362" s="3">
+      <c r="E362" s="2">
         <v>2</v>
       </c>
       <c r="F362">
@@ -19036,7 +19033,7 @@
       <c r="D363" t="s">
         <v>19</v>
       </c>
-      <c r="E363" s="3">
+      <c r="E363" s="2">
         <v>1</v>
       </c>
       <c r="F363">
@@ -19087,7 +19084,7 @@
       <c r="D364" t="s">
         <v>21</v>
       </c>
-      <c r="E364" s="3">
+      <c r="E364" s="2">
         <v>1</v>
       </c>
       <c r="F364">
@@ -19138,7 +19135,7 @@
       <c r="D365" t="s">
         <v>22</v>
       </c>
-      <c r="E365" s="3">
+      <c r="E365" s="2">
         <v>1</v>
       </c>
       <c r="F365">
@@ -19189,7 +19186,7 @@
       <c r="D366" t="s">
         <v>23</v>
       </c>
-      <c r="E366" s="3">
+      <c r="E366" s="2">
         <v>3</v>
       </c>
       <c r="F366">
@@ -19240,7 +19237,7 @@
       <c r="D367" t="s">
         <v>23</v>
       </c>
-      <c r="E367" s="3">
+      <c r="E367" s="2">
         <v>2</v>
       </c>
       <c r="F367">
@@ -19291,7 +19288,7 @@
       <c r="D368" t="s">
         <v>19</v>
       </c>
-      <c r="E368" s="3">
+      <c r="E368" s="2">
         <v>1</v>
       </c>
       <c r="F368">
@@ -19342,7 +19339,7 @@
       <c r="D369" t="s">
         <v>21</v>
       </c>
-      <c r="E369" s="3">
+      <c r="E369" s="2">
         <v>1</v>
       </c>
       <c r="F369">
@@ -19393,7 +19390,7 @@
       <c r="D370" t="s">
         <v>23</v>
       </c>
-      <c r="E370" s="3">
+      <c r="E370" s="2">
         <v>3</v>
       </c>
       <c r="F370">
@@ -19444,7 +19441,7 @@
       <c r="D371" t="s">
         <v>23</v>
       </c>
-      <c r="E371" s="3">
+      <c r="E371" s="2">
         <v>2</v>
       </c>
       <c r="F371">
@@ -19495,7 +19492,7 @@
       <c r="D372" t="s">
         <v>19</v>
       </c>
-      <c r="E372" s="3">
+      <c r="E372" s="2">
         <v>1</v>
       </c>
       <c r="F372">
@@ -19546,7 +19543,7 @@
       <c r="D373" t="s">
         <v>21</v>
       </c>
-      <c r="E373" s="3">
+      <c r="E373" s="2">
         <v>1</v>
       </c>
       <c r="F373">
@@ -19597,7 +19594,7 @@
       <c r="D374" t="s">
         <v>23</v>
       </c>
-      <c r="E374" s="3">
+      <c r="E374" s="2">
         <v>2</v>
       </c>
       <c r="F374">
@@ -19648,7 +19645,7 @@
       <c r="D375" t="s">
         <v>19</v>
       </c>
-      <c r="E375" s="3">
+      <c r="E375" s="2">
         <v>1</v>
       </c>
       <c r="F375">
@@ -19699,7 +19696,7 @@
       <c r="D376" t="s">
         <v>21</v>
       </c>
-      <c r="E376" s="3">
+      <c r="E376" s="2">
         <v>1</v>
       </c>
       <c r="F376">
@@ -19750,7 +19747,7 @@
       <c r="D377" t="s">
         <v>23</v>
       </c>
-      <c r="E377" s="3">
+      <c r="E377" s="2">
         <v>2</v>
       </c>
       <c r="F377">
@@ -19801,7 +19798,7 @@
       <c r="D378" t="s">
         <v>19</v>
       </c>
-      <c r="E378" s="3">
+      <c r="E378" s="2">
         <v>1</v>
       </c>
       <c r="F378">
@@ -19852,7 +19849,7 @@
       <c r="D379" t="s">
         <v>21</v>
       </c>
-      <c r="E379" s="3">
+      <c r="E379" s="2">
         <v>1</v>
       </c>
       <c r="F379">
@@ -19903,7 +19900,7 @@
       <c r="D380" t="s">
         <v>23</v>
       </c>
-      <c r="E380" s="3">
+      <c r="E380" s="2">
         <v>2</v>
       </c>
       <c r="F380">
@@ -19954,7 +19951,7 @@
       <c r="D381" t="s">
         <v>19</v>
       </c>
-      <c r="E381" s="3">
+      <c r="E381" s="2">
         <v>1</v>
       </c>
       <c r="F381">
@@ -20005,7 +20002,7 @@
       <c r="D382" t="s">
         <v>21</v>
       </c>
-      <c r="E382" s="3">
+      <c r="E382" s="2">
         <v>1</v>
       </c>
       <c r="F382">
@@ -20056,7 +20053,7 @@
       <c r="D383" t="s">
         <v>22</v>
       </c>
-      <c r="E383" s="3">
+      <c r="E383" s="2">
         <v>1</v>
       </c>
       <c r="F383">
@@ -20107,7 +20104,7 @@
       <c r="D384" t="s">
         <v>23</v>
       </c>
-      <c r="E384" s="3">
+      <c r="E384" s="2">
         <v>2</v>
       </c>
       <c r="F384">
@@ -20158,7 +20155,7 @@
       <c r="D385" t="s">
         <v>19</v>
       </c>
-      <c r="E385" s="3">
+      <c r="E385" s="2">
         <v>1</v>
       </c>
       <c r="F385">
@@ -20209,7 +20206,7 @@
       <c r="D386" t="s">
         <v>21</v>
       </c>
-      <c r="E386" s="3">
+      <c r="E386" s="2">
         <v>1</v>
       </c>
       <c r="F386">
@@ -20260,7 +20257,7 @@
       <c r="D387" t="s">
         <v>23</v>
       </c>
-      <c r="E387" s="3">
+      <c r="E387" s="2">
         <v>2</v>
       </c>
       <c r="F387">
@@ -20311,7 +20308,7 @@
       <c r="D388" t="s">
         <v>19</v>
       </c>
-      <c r="E388" s="3">
+      <c r="E388" s="2">
         <v>1</v>
       </c>
       <c r="F388">
@@ -20362,7 +20359,7 @@
       <c r="D389" t="s">
         <v>21</v>
       </c>
-      <c r="E389" s="3">
+      <c r="E389" s="2">
         <v>1</v>
       </c>
       <c r="F389">
@@ -20413,7 +20410,7 @@
       <c r="D390" t="s">
         <v>23</v>
       </c>
-      <c r="E390" s="3">
+      <c r="E390" s="2">
         <v>2</v>
       </c>
       <c r="F390">
@@ -20464,7 +20461,7 @@
       <c r="D391" t="s">
         <v>19</v>
       </c>
-      <c r="E391" s="3">
+      <c r="E391" s="2">
         <v>1</v>
       </c>
       <c r="F391">
@@ -20515,7 +20512,7 @@
       <c r="D392" t="s">
         <v>21</v>
       </c>
-      <c r="E392" s="3">
+      <c r="E392" s="2">
         <v>1</v>
       </c>
       <c r="F392">
@@ -20566,7 +20563,7 @@
       <c r="D393" t="s">
         <v>23</v>
       </c>
-      <c r="E393" s="3">
+      <c r="E393" s="2">
         <v>2</v>
       </c>
       <c r="F393">
@@ -20617,7 +20614,7 @@
       <c r="D394" t="s">
         <v>23</v>
       </c>
-      <c r="E394" s="3">
+      <c r="E394" s="2">
         <v>2</v>
       </c>
       <c r="F394">
@@ -20668,7 +20665,7 @@
       <c r="D395" t="s">
         <v>19</v>
       </c>
-      <c r="E395" s="3">
+      <c r="E395" s="2">
         <v>1</v>
       </c>
       <c r="F395">
@@ -20719,7 +20716,7 @@
       <c r="D396" t="s">
         <v>21</v>
       </c>
-      <c r="E396" s="3">
+      <c r="E396" s="2">
         <v>1</v>
       </c>
       <c r="F396">
@@ -20770,7 +20767,7 @@
       <c r="D397" t="s">
         <v>23</v>
       </c>
-      <c r="E397" s="3">
+      <c r="E397" s="2">
         <v>3</v>
       </c>
       <c r="F397">
@@ -20821,7 +20818,7 @@
       <c r="D398" t="s">
         <v>23</v>
       </c>
-      <c r="E398" s="3">
+      <c r="E398" s="2">
         <v>2</v>
       </c>
       <c r="F398">
@@ -20872,7 +20869,7 @@
       <c r="D399" t="s">
         <v>19</v>
       </c>
-      <c r="E399" s="3">
+      <c r="E399" s="2">
         <v>1</v>
       </c>
       <c r="F399">
@@ -20923,7 +20920,7 @@
       <c r="D400" t="s">
         <v>21</v>
       </c>
-      <c r="E400" s="3">
+      <c r="E400" s="2">
         <v>1</v>
       </c>
       <c r="F400">
@@ -20974,7 +20971,7 @@
       <c r="D401" t="s">
         <v>23</v>
       </c>
-      <c r="E401" s="3">
+      <c r="E401" s="2">
         <v>3</v>
       </c>
       <c r="F401">
@@ -21025,7 +21022,7 @@
       <c r="D402" t="s">
         <v>23</v>
       </c>
-      <c r="E402" s="3">
+      <c r="E402" s="2">
         <v>2</v>
       </c>
       <c r="F402">
@@ -21076,7 +21073,7 @@
       <c r="D403" t="s">
         <v>19</v>
       </c>
-      <c r="E403" s="3">
+      <c r="E403" s="2">
         <v>1</v>
       </c>
       <c r="F403">
@@ -21127,7 +21124,7 @@
       <c r="D404" t="s">
         <v>21</v>
       </c>
-      <c r="E404" s="3">
+      <c r="E404" s="2">
         <v>1</v>
       </c>
       <c r="F404">
@@ -21178,7 +21175,7 @@
       <c r="D405" t="s">
         <v>23</v>
       </c>
-      <c r="E405" s="3">
+      <c r="E405" s="2">
         <v>3</v>
       </c>
       <c r="F405">
@@ -21229,7 +21226,7 @@
       <c r="D406" t="s">
         <v>23</v>
       </c>
-      <c r="E406" s="3">
+      <c r="E406" s="2">
         <v>2</v>
       </c>
       <c r="F406">
@@ -21280,7 +21277,7 @@
       <c r="D407" t="s">
         <v>19</v>
       </c>
-      <c r="E407" s="3">
+      <c r="E407" s="2">
         <v>1</v>
       </c>
       <c r="F407">
@@ -21331,7 +21328,7 @@
       <c r="D408" t="s">
         <v>21</v>
       </c>
-      <c r="E408" s="3">
+      <c r="E408" s="2">
         <v>1</v>
       </c>
       <c r="F408">
@@ -21382,7 +21379,7 @@
       <c r="D409" t="s">
         <v>23</v>
       </c>
-      <c r="E409" s="3">
+      <c r="E409" s="2">
         <v>3</v>
       </c>
       <c r="F409">
@@ -21433,7 +21430,7 @@
       <c r="D410" t="s">
         <v>23</v>
       </c>
-      <c r="E410" s="3">
+      <c r="E410" s="2">
         <v>2</v>
       </c>
       <c r="F410">
@@ -21484,7 +21481,7 @@
       <c r="D411" t="s">
         <v>19</v>
       </c>
-      <c r="E411" s="3">
+      <c r="E411" s="2">
         <v>1</v>
       </c>
       <c r="F411">
@@ -21535,7 +21532,7 @@
       <c r="D412" t="s">
         <v>21</v>
       </c>
-      <c r="E412" s="3">
+      <c r="E412" s="2">
         <v>1</v>
       </c>
       <c r="F412">
@@ -21586,7 +21583,7 @@
       <c r="D413" t="s">
         <v>19</v>
       </c>
-      <c r="E413" s="3">
+      <c r="E413" s="2">
         <v>1</v>
       </c>
       <c r="F413">
@@ -21608,11 +21605,9 @@
         <v>38.01</v>
       </c>
       <c r="L413">
-        <f>SUM(F413:K413)</f>
         <v>740.96999999999991</v>
       </c>
       <c r="M413">
-        <f>L413+0</f>
         <v>740.96999999999991</v>
       </c>
       <c r="N413" s="1">
@@ -21639,7 +21634,7 @@
       <c r="D414" t="s">
         <v>22</v>
       </c>
-      <c r="E414" s="3">
+      <c r="E414" s="2">
         <v>1</v>
       </c>
       <c r="F414">
@@ -21661,11 +21656,9 @@
         <v>38.01</v>
       </c>
       <c r="L414">
-        <f t="shared" ref="L414:L457" si="7">SUM(F414:K414)</f>
         <v>714.33</v>
       </c>
       <c r="M414">
-        <f t="shared" ref="M414:M432" si="8">L414+0</f>
         <v>714.33</v>
       </c>
       <c r="N414" s="1">
@@ -21692,7 +21685,7 @@
       <c r="D415" t="s">
         <v>21</v>
       </c>
-      <c r="E415" s="3">
+      <c r="E415" s="2">
         <v>1</v>
       </c>
       <c r="F415">
@@ -21714,11 +21707,9 @@
         <v>38.01</v>
       </c>
       <c r="L415">
-        <f t="shared" si="7"/>
         <v>687.69999999999993</v>
       </c>
       <c r="M415">
-        <f t="shared" si="8"/>
         <v>687.69999999999993</v>
       </c>
       <c r="N415" s="1">
@@ -21745,7 +21736,7 @@
       <c r="D416" t="s">
         <v>23</v>
       </c>
-      <c r="E416" s="3">
+      <c r="E416" s="2">
         <v>2</v>
       </c>
       <c r="F416">
@@ -21767,11 +21758,9 @@
         <v>38.01</v>
       </c>
       <c r="L416">
-        <f t="shared" si="7"/>
         <v>632.08999999999992</v>
       </c>
       <c r="M416">
-        <f t="shared" si="8"/>
         <v>632.08999999999992</v>
       </c>
       <c r="N416" s="1">
@@ -21798,7 +21787,7 @@
       <c r="D417" t="s">
         <v>23</v>
       </c>
-      <c r="E417" s="3">
+      <c r="E417" s="2">
         <v>3</v>
       </c>
       <c r="F417">
@@ -21820,11 +21809,9 @@
         <v>38.01</v>
       </c>
       <c r="L417">
-        <f t="shared" si="7"/>
         <v>565.42999999999995</v>
       </c>
       <c r="M417">
-        <f t="shared" si="8"/>
         <v>565.42999999999995</v>
       </c>
       <c r="N417" s="1">
@@ -21851,7 +21838,7 @@
       <c r="D418" t="s">
         <v>19</v>
       </c>
-      <c r="E418" s="3">
+      <c r="E418" s="2">
         <v>1</v>
       </c>
       <c r="F418">
@@ -21873,11 +21860,9 @@
         <v>38.01</v>
       </c>
       <c r="L418">
-        <f t="shared" si="7"/>
         <v>768.04</v>
       </c>
       <c r="M418">
-        <f t="shared" si="8"/>
         <v>768.04</v>
       </c>
       <c r="N418" s="1">
@@ -21904,7 +21889,7 @@
       <c r="D419" t="s">
         <v>22</v>
       </c>
-      <c r="E419" s="3">
+      <c r="E419" s="2">
         <v>1</v>
       </c>
       <c r="F419">
@@ -21926,11 +21911,9 @@
         <v>38.01</v>
       </c>
       <c r="L419">
-        <f t="shared" si="7"/>
         <v>732.67</v>
       </c>
       <c r="M419">
-        <f t="shared" si="8"/>
         <v>732.67</v>
       </c>
       <c r="N419" s="1">
@@ -21957,7 +21940,7 @@
       <c r="D420" t="s">
         <v>21</v>
       </c>
-      <c r="E420" s="3">
+      <c r="E420" s="2">
         <v>1</v>
       </c>
       <c r="F420">
@@ -21979,11 +21962,9 @@
         <v>38.01</v>
       </c>
       <c r="L420">
-        <f t="shared" si="7"/>
         <v>697.3</v>
       </c>
       <c r="M420">
-        <f t="shared" si="8"/>
         <v>697.3</v>
       </c>
       <c r="N420" s="1">
@@ -22010,7 +21991,7 @@
       <c r="D421" t="s">
         <v>23</v>
       </c>
-      <c r="E421" s="3">
+      <c r="E421" s="2">
         <v>2</v>
       </c>
       <c r="F421">
@@ -22032,11 +22013,9 @@
         <v>38.01</v>
       </c>
       <c r="L421">
-        <f t="shared" si="7"/>
         <v>566.01</v>
       </c>
       <c r="M421">
-        <f t="shared" si="8"/>
         <v>566.01</v>
       </c>
       <c r="N421" s="1">
@@ -22063,7 +22042,7 @@
       <c r="D422" t="s">
         <v>23</v>
       </c>
-      <c r="E422" s="3">
+      <c r="E422" s="2">
         <v>3</v>
       </c>
       <c r="F422">
@@ -22085,11 +22064,9 @@
         <v>38.01</v>
       </c>
       <c r="L422">
-        <f t="shared" si="7"/>
         <v>503.94</v>
       </c>
       <c r="M422">
-        <f t="shared" si="8"/>
         <v>503.94</v>
       </c>
       <c r="N422" s="1">
@@ -22116,7 +22093,7 @@
       <c r="D423" t="s">
         <v>19</v>
       </c>
-      <c r="E423" s="3">
+      <c r="E423" s="2">
         <v>1</v>
       </c>
       <c r="F423">
@@ -22137,12 +22114,10 @@
       <c r="K423">
         <v>40.46</v>
       </c>
-      <c r="L423" s="4">
-        <f t="shared" si="7"/>
+      <c r="L423" s="3">
         <v>992.77</v>
       </c>
       <c r="M423">
-        <f t="shared" si="8"/>
         <v>992.77</v>
       </c>
       <c r="N423" s="1">
@@ -22169,7 +22144,7 @@
       <c r="D424" t="s">
         <v>22</v>
       </c>
-      <c r="E424" s="3">
+      <c r="E424" s="2">
         <v>1</v>
       </c>
       <c r="F424">
@@ -22190,12 +22165,10 @@
       <c r="K424">
         <v>40.46</v>
       </c>
-      <c r="L424" s="4">
-        <f t="shared" si="7"/>
+      <c r="L424" s="3">
         <v>945.36</v>
       </c>
       <c r="M424">
-        <f t="shared" si="8"/>
         <v>945.36</v>
       </c>
       <c r="N424" s="1">
@@ -22222,7 +22195,7 @@
       <c r="D425" t="s">
         <v>21</v>
       </c>
-      <c r="E425" s="3">
+      <c r="E425" s="2">
         <v>1</v>
       </c>
       <c r="F425">
@@ -22243,12 +22216,10 @@
       <c r="K425">
         <v>40.46</v>
       </c>
-      <c r="L425" s="4">
-        <f t="shared" si="7"/>
+      <c r="L425" s="3">
         <v>897.94</v>
       </c>
       <c r="M425">
-        <f t="shared" si="8"/>
         <v>897.94</v>
       </c>
       <c r="N425" s="1">
@@ -22275,7 +22246,7 @@
       <c r="D426" t="s">
         <v>23</v>
       </c>
-      <c r="E426" s="3">
+      <c r="E426" s="2">
         <v>2</v>
       </c>
       <c r="F426">
@@ -22296,12 +22267,10 @@
       <c r="K426">
         <v>40.46</v>
       </c>
-      <c r="L426" s="4">
-        <f t="shared" si="7"/>
+      <c r="L426" s="3">
         <v>740.13</v>
       </c>
       <c r="M426">
-        <f t="shared" si="8"/>
         <v>740.13</v>
       </c>
       <c r="N426" s="1">
@@ -22328,7 +22297,7 @@
       <c r="D427" t="s">
         <v>23</v>
       </c>
-      <c r="E427" s="3">
+      <c r="E427" s="2">
         <v>3</v>
       </c>
       <c r="F427">
@@ -22349,12 +22318,10 @@
       <c r="K427">
         <v>40.46</v>
       </c>
-      <c r="L427" s="4">
-        <f t="shared" si="7"/>
+      <c r="L427" s="3">
         <v>670.03</v>
       </c>
       <c r="M427">
-        <f t="shared" si="8"/>
         <v>670.03</v>
       </c>
       <c r="N427" s="1">
@@ -22381,7 +22348,7 @@
       <c r="D428" t="s">
         <v>19</v>
       </c>
-      <c r="E428" s="3">
+      <c r="E428" s="2">
         <v>1</v>
       </c>
       <c r="F428">
@@ -22403,11 +22370,9 @@
         <v>38.01</v>
       </c>
       <c r="L428">
-        <f t="shared" si="7"/>
         <v>690.29</v>
       </c>
       <c r="M428">
-        <f t="shared" si="8"/>
         <v>690.29</v>
       </c>
       <c r="N428" s="1">
@@ -22434,7 +22399,7 @@
       <c r="D429" t="s">
         <v>22</v>
       </c>
-      <c r="E429" s="3">
+      <c r="E429" s="2">
         <v>1</v>
       </c>
       <c r="F429">
@@ -22456,11 +22421,9 @@
         <v>38.01</v>
       </c>
       <c r="L429">
-        <f t="shared" si="7"/>
         <v>676.03</v>
       </c>
       <c r="M429">
-        <f t="shared" si="8"/>
         <v>676.03</v>
       </c>
       <c r="N429" s="1">
@@ -22487,7 +22450,7 @@
       <c r="D430" t="s">
         <v>21</v>
       </c>
-      <c r="E430" s="3">
+      <c r="E430" s="2">
         <v>1</v>
       </c>
       <c r="F430">
@@ -22509,11 +22472,9 @@
         <v>38.01</v>
       </c>
       <c r="L430">
-        <f t="shared" si="7"/>
         <v>661.76</v>
       </c>
       <c r="M430">
-        <f t="shared" si="8"/>
         <v>661.76</v>
       </c>
       <c r="N430" s="1">
@@ -22540,7 +22501,7 @@
       <c r="D431" t="s">
         <v>23</v>
       </c>
-      <c r="E431" s="3">
+      <c r="E431" s="2">
         <v>2</v>
       </c>
       <c r="F431">
@@ -22562,11 +22523,9 @@
         <v>38.01</v>
       </c>
       <c r="L431">
-        <f t="shared" si="7"/>
         <v>558.06000000000006</v>
       </c>
       <c r="M431">
-        <f t="shared" si="8"/>
         <v>558.06000000000006</v>
       </c>
       <c r="N431" s="1">
@@ -22593,7 +22552,7 @@
       <c r="D432" t="s">
         <v>23</v>
       </c>
-      <c r="E432" s="3">
+      <c r="E432" s="2">
         <v>3</v>
       </c>
       <c r="F432">
@@ -22615,11 +22574,9 @@
         <v>38.01</v>
       </c>
       <c r="L432">
-        <f t="shared" si="7"/>
         <v>497.88</v>
       </c>
       <c r="M432">
-        <f t="shared" si="8"/>
         <v>497.88</v>
       </c>
       <c r="N432" s="1">
@@ -22646,668 +22603,1108 @@
       <c r="D433" t="s">
         <v>19</v>
       </c>
-      <c r="E433" s="3">
+      <c r="E433" s="2">
         <v>1</v>
       </c>
+      <c r="F433">
+        <v>243.24</v>
+      </c>
+      <c r="G433">
+        <v>56.76</v>
+      </c>
+      <c r="H433">
+        <v>326.95</v>
+      </c>
+      <c r="I433">
+        <v>53.57</v>
+      </c>
+      <c r="J433">
+        <v>117.98</v>
+      </c>
+      <c r="K433">
+        <v>38.01</v>
+      </c>
       <c r="L433">
+        <v>836.5100000000001</v>
+      </c>
+      <c r="M433">
+        <v>836.5100000000001</v>
+      </c>
+      <c r="N433" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O433" t="s">
+        <v>27</v>
+      </c>
+      <c r="P433" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="434" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A434">
+        <v>202505</v>
+      </c>
+      <c r="B434" t="s">
+        <v>54</v>
+      </c>
+      <c r="C434" t="s">
+        <v>47</v>
+      </c>
+      <c r="D434" t="s">
+        <v>22</v>
+      </c>
+      <c r="E434" s="2">
+        <v>1</v>
+      </c>
+      <c r="F434">
+        <v>243.24</v>
+      </c>
+      <c r="G434">
+        <v>56.76</v>
+      </c>
+      <c r="H434">
+        <v>291.41000000000003</v>
+      </c>
+      <c r="I434">
+        <v>53.57</v>
+      </c>
+      <c r="J434">
+        <v>117.98</v>
+      </c>
+      <c r="K434">
+        <v>38.01</v>
+      </c>
+      <c r="L434">
+        <v>800.97000000000014</v>
+      </c>
+      <c r="M434">
+        <v>800.97000000000014</v>
+      </c>
+      <c r="N434" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O434" t="s">
+        <v>27</v>
+      </c>
+      <c r="P434" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="435" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A435">
+        <v>202505</v>
+      </c>
+      <c r="B435" t="s">
+        <v>54</v>
+      </c>
+      <c r="C435" t="s">
+        <v>47</v>
+      </c>
+      <c r="D435" t="s">
+        <v>21</v>
+      </c>
+      <c r="E435" s="2">
+        <v>1</v>
+      </c>
+      <c r="F435">
+        <v>243.24</v>
+      </c>
+      <c r="G435">
+        <v>56.76</v>
+      </c>
+      <c r="H435">
+        <v>255.88</v>
+      </c>
+      <c r="I435">
+        <v>53.57</v>
+      </c>
+      <c r="J435">
+        <v>117.98</v>
+      </c>
+      <c r="K435">
+        <v>38.01</v>
+      </c>
+      <c r="L435">
+        <v>765.44</v>
+      </c>
+      <c r="M435">
+        <v>765.44</v>
+      </c>
+      <c r="N435" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O435" t="s">
+        <v>27</v>
+      </c>
+      <c r="P435" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="436" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A436">
+        <v>202505</v>
+      </c>
+      <c r="B436" t="s">
+        <v>54</v>
+      </c>
+      <c r="C436" t="s">
+        <v>47</v>
+      </c>
+      <c r="D436" t="s">
+        <v>23</v>
+      </c>
+      <c r="E436" s="2">
+        <v>2</v>
+      </c>
+      <c r="F436">
+        <v>243.24</v>
+      </c>
+      <c r="G436">
+        <v>56.76</v>
+      </c>
+      <c r="H436">
+        <v>206.27</v>
+      </c>
+      <c r="I436">
+        <v>16.89</v>
+      </c>
+      <c r="J436">
+        <v>93.8</v>
+      </c>
+      <c r="K436">
+        <v>38.01</v>
+      </c>
+      <c r="L436">
+        <v>654.96999999999991</v>
+      </c>
+      <c r="M436">
+        <v>654.96999999999991</v>
+      </c>
+      <c r="N436" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O436" t="s">
+        <v>27</v>
+      </c>
+      <c r="P436" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="437" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A437">
+        <v>202505</v>
+      </c>
+      <c r="B437" t="s">
+        <v>54</v>
+      </c>
+      <c r="C437" t="s">
+        <v>47</v>
+      </c>
+      <c r="D437" t="s">
+        <v>23</v>
+      </c>
+      <c r="E437" s="2">
+        <v>3</v>
+      </c>
+      <c r="F437">
+        <v>243.24</v>
+      </c>
+      <c r="G437">
+        <v>56.76</v>
+      </c>
+      <c r="H437">
+        <v>90.89</v>
+      </c>
+      <c r="I437">
+        <v>15.13</v>
+      </c>
+      <c r="J437">
+        <v>92.23</v>
+      </c>
+      <c r="K437">
+        <v>38.01</v>
+      </c>
+      <c r="L437">
+        <v>536.26</v>
+      </c>
+      <c r="M437">
+        <v>536.26</v>
+      </c>
+      <c r="N437" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O437" t="s">
+        <v>27</v>
+      </c>
+      <c r="P437" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="438" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A438">
+        <v>202505</v>
+      </c>
+      <c r="B438" t="s">
+        <v>55</v>
+      </c>
+      <c r="C438" t="s">
+        <v>37</v>
+      </c>
+      <c r="D438" t="s">
+        <v>19</v>
+      </c>
+      <c r="E438" s="2">
+        <v>1</v>
+      </c>
+      <c r="F438">
+        <v>269.02859999999998</v>
+      </c>
+      <c r="G438">
+        <v>56.76</v>
+      </c>
+      <c r="H438">
+        <v>299.0111</v>
+      </c>
+      <c r="I438">
+        <v>55.589100000000002</v>
+      </c>
+      <c r="J438">
+        <v>78.719300000000004</v>
+      </c>
+      <c r="K438">
+        <v>40.313000000000002</v>
+      </c>
+      <c r="L438">
+        <v>799.42110000000002</v>
+      </c>
+      <c r="M438">
+        <v>799.42110000000002</v>
+      </c>
+      <c r="N438" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O438" t="s">
+        <v>27</v>
+      </c>
+      <c r="P438" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="439" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A439">
+        <v>202505</v>
+      </c>
+      <c r="B439" t="s">
+        <v>55</v>
+      </c>
+      <c r="C439" t="s">
+        <v>37</v>
+      </c>
+      <c r="D439" t="s">
+        <v>22</v>
+      </c>
+      <c r="E439" s="2">
+        <v>1</v>
+      </c>
+      <c r="F439">
+        <v>269.02859999999998</v>
+      </c>
+      <c r="G439">
+        <v>56.76</v>
+      </c>
+      <c r="H439">
+        <v>272.37479999999999</v>
+      </c>
+      <c r="I439">
+        <v>55.589100000000002</v>
+      </c>
+      <c r="J439">
+        <v>78.719300000000004</v>
+      </c>
+      <c r="K439">
+        <v>40.313000000000002</v>
+      </c>
+      <c r="L439">
+        <v>772.7847999999999</v>
+      </c>
+      <c r="M439">
+        <v>772.7847999999999</v>
+      </c>
+      <c r="N439" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O439" t="s">
+        <v>27</v>
+      </c>
+      <c r="P439" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="440" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A440">
+        <v>202505</v>
+      </c>
+      <c r="B440" t="s">
+        <v>55</v>
+      </c>
+      <c r="C440" t="s">
+        <v>37</v>
+      </c>
+      <c r="D440" t="s">
+        <v>21</v>
+      </c>
+      <c r="E440" s="2">
+        <v>1</v>
+      </c>
+      <c r="F440">
+        <v>269.02859999999998</v>
+      </c>
+      <c r="G440">
+        <v>56.76</v>
+      </c>
+      <c r="H440">
+        <v>245.73849999999999</v>
+      </c>
+      <c r="I440">
+        <v>55.589100000000002</v>
+      </c>
+      <c r="J440">
+        <v>78.719300000000004</v>
+      </c>
+      <c r="K440">
+        <v>40.313000000000002</v>
+      </c>
+      <c r="L440">
+        <v>746.14850000000001</v>
+      </c>
+      <c r="M440">
+        <v>746.14850000000001</v>
+      </c>
+      <c r="N440" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O440" t="s">
+        <v>27</v>
+      </c>
+      <c r="P440" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="441" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A441">
+        <v>202505</v>
+      </c>
+      <c r="B441" t="s">
+        <v>55</v>
+      </c>
+      <c r="C441" t="s">
+        <v>37</v>
+      </c>
+      <c r="D441" t="s">
+        <v>23</v>
+      </c>
+      <c r="E441" s="2">
+        <v>2</v>
+      </c>
+      <c r="F441">
+        <v>269.02859999999998</v>
+      </c>
+      <c r="G441">
+        <v>56.76</v>
+      </c>
+      <c r="H441">
+        <v>188.35059999999999</v>
+      </c>
+      <c r="I441">
+        <v>19.040800000000001</v>
+      </c>
+      <c r="J441">
+        <v>116.6093</v>
+      </c>
+      <c r="K441">
+        <v>40.313000000000002</v>
+      </c>
+      <c r="L441">
+        <v>690.1022999999999</v>
+      </c>
+      <c r="M441">
+        <v>690.1022999999999</v>
+      </c>
+      <c r="N441" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O441" t="s">
+        <v>27</v>
+      </c>
+      <c r="P441" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="442" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A442">
+        <v>202505</v>
+      </c>
+      <c r="B442" t="s">
+        <v>55</v>
+      </c>
+      <c r="C442" t="s">
+        <v>37</v>
+      </c>
+      <c r="D442" t="s">
+        <v>23</v>
+      </c>
+      <c r="E442" s="2">
+        <v>3</v>
+      </c>
+      <c r="F442">
+        <v>269.02859999999998</v>
+      </c>
+      <c r="G442">
+        <v>56.76</v>
+      </c>
+      <c r="H442">
+        <v>127.3489</v>
+      </c>
+      <c r="I442">
+        <v>18.479399999999998</v>
+      </c>
+      <c r="J442">
+        <v>111.5093</v>
+      </c>
+      <c r="K442">
+        <v>40.313000000000002</v>
+      </c>
+      <c r="L442">
+        <v>623.43919999999991</v>
+      </c>
+      <c r="M442">
+        <v>623.43919999999991</v>
+      </c>
+      <c r="N442" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O442" t="s">
+        <v>27</v>
+      </c>
+      <c r="P442" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="443" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A443">
+        <v>202505</v>
+      </c>
+      <c r="B443" t="s">
+        <v>56</v>
+      </c>
+      <c r="C443" t="s">
+        <v>45</v>
+      </c>
+      <c r="D443" t="s">
+        <v>19</v>
+      </c>
+      <c r="E443" s="2">
+        <v>1</v>
+      </c>
+      <c r="F443">
+        <v>283.18</v>
+      </c>
+      <c r="G443">
+        <v>56.76</v>
+      </c>
+      <c r="H443">
+        <v>262.47000000000003</v>
+      </c>
+      <c r="I443">
+        <v>54.03</v>
+      </c>
+      <c r="J443">
+        <v>157.61000000000001</v>
+      </c>
+      <c r="K443">
+        <v>44.92</v>
+      </c>
+      <c r="L443">
+        <v>858.97</v>
+      </c>
+      <c r="M443">
+        <v>858.97</v>
+      </c>
+      <c r="N443" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O443" t="s">
+        <v>27</v>
+      </c>
+      <c r="P443" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="444" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A444">
+        <v>202505</v>
+      </c>
+      <c r="B444" t="s">
+        <v>56</v>
+      </c>
+      <c r="C444" t="s">
+        <v>45</v>
+      </c>
+      <c r="D444" t="s">
+        <v>22</v>
+      </c>
+      <c r="E444" s="2">
+        <v>1</v>
+      </c>
+      <c r="F444">
+        <v>283.18</v>
+      </c>
+      <c r="G444">
+        <v>56.76</v>
+      </c>
+      <c r="H444">
+        <v>246.42</v>
+      </c>
+      <c r="I444">
+        <v>54.03</v>
+      </c>
+      <c r="J444">
+        <v>157.61000000000001</v>
+      </c>
+      <c r="K444">
+        <v>44.92</v>
+      </c>
+      <c r="L444">
+        <v>842.92</v>
+      </c>
+      <c r="M444">
+        <v>842.92</v>
+      </c>
+      <c r="N444" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O444" t="s">
+        <v>27</v>
+      </c>
+      <c r="P444" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="445" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A445">
+        <v>202505</v>
+      </c>
+      <c r="B445" t="s">
+        <v>56</v>
+      </c>
+      <c r="C445" t="s">
+        <v>45</v>
+      </c>
+      <c r="D445" t="s">
+        <v>21</v>
+      </c>
+      <c r="E445" s="2">
+        <v>1</v>
+      </c>
+      <c r="F445">
+        <v>283.18</v>
+      </c>
+      <c r="G445">
+        <v>56.76</v>
+      </c>
+      <c r="H445">
+        <v>230.37</v>
+      </c>
+      <c r="I445">
+        <v>54.03</v>
+      </c>
+      <c r="J445">
+        <v>157.61000000000001</v>
+      </c>
+      <c r="K445">
+        <v>44.92</v>
+      </c>
+      <c r="L445">
+        <v>826.86999999999989</v>
+      </c>
+      <c r="M445">
+        <v>826.86999999999989</v>
+      </c>
+      <c r="N445" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O445" t="s">
+        <v>27</v>
+      </c>
+      <c r="P445" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="446" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A446">
+        <v>202505</v>
+      </c>
+      <c r="B446" t="s">
+        <v>56</v>
+      </c>
+      <c r="C446" t="s">
+        <v>45</v>
+      </c>
+      <c r="D446" t="s">
+        <v>23</v>
+      </c>
+      <c r="E446" s="2">
+        <v>2</v>
+      </c>
+      <c r="F446">
+        <v>283.18</v>
+      </c>
+      <c r="G446">
+        <v>56.76</v>
+      </c>
+      <c r="H446">
+        <v>181.1</v>
+      </c>
+      <c r="I446">
+        <v>24.6</v>
+      </c>
+      <c r="J446">
+        <v>136.47</v>
+      </c>
+      <c r="K446">
+        <v>44.92</v>
+      </c>
+      <c r="L446">
+        <v>727.03</v>
+      </c>
+      <c r="M446">
+        <v>727.03</v>
+      </c>
+      <c r="N446" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O446" t="s">
+        <v>27</v>
+      </c>
+      <c r="P446" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="447" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A447">
+        <v>202505</v>
+      </c>
+      <c r="B447" t="s">
+        <v>56</v>
+      </c>
+      <c r="C447" t="s">
+        <v>45</v>
+      </c>
+      <c r="D447" t="s">
+        <v>23</v>
+      </c>
+      <c r="E447" s="2">
+        <v>3</v>
+      </c>
+      <c r="F447">
+        <v>283.18</v>
+      </c>
+      <c r="G447">
+        <v>56.76</v>
+      </c>
+      <c r="H447">
+        <v>79.73</v>
+      </c>
+      <c r="I447">
+        <v>19.27</v>
+      </c>
+      <c r="J447">
+        <v>124.82</v>
+      </c>
+      <c r="K447">
+        <v>44.92</v>
+      </c>
+      <c r="L447">
+        <v>608.67999999999995</v>
+      </c>
+      <c r="M447">
+        <v>608.67999999999995</v>
+      </c>
+      <c r="N447" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O447" t="s">
+        <v>27</v>
+      </c>
+      <c r="P447" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="448" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A448">
+        <v>202505</v>
+      </c>
+      <c r="B448" t="s">
+        <v>57</v>
+      </c>
+      <c r="C448" t="s">
+        <v>39</v>
+      </c>
+      <c r="D448" t="s">
+        <v>19</v>
+      </c>
+      <c r="E448" s="2">
+        <v>1</v>
+      </c>
+      <c r="F448">
+        <v>287.31</v>
+      </c>
+      <c r="G448">
+        <v>56.76</v>
+      </c>
+      <c r="H448">
+        <v>326.95</v>
+      </c>
+      <c r="I448">
+        <v>56.24</v>
+      </c>
+      <c r="J448">
+        <v>202.73</v>
+      </c>
+      <c r="K448">
+        <v>38.31</v>
+      </c>
+      <c r="L448">
+        <v>968.3</v>
+      </c>
+      <c r="M448">
+        <v>968.3</v>
+      </c>
+      <c r="N448" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O448" t="s">
+        <v>27</v>
+      </c>
+      <c r="P448" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="449" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A449">
+        <v>202505</v>
+      </c>
+      <c r="B449" t="s">
+        <v>57</v>
+      </c>
+      <c r="C449" t="s">
+        <v>39</v>
+      </c>
+      <c r="D449" t="s">
+        <v>21</v>
+      </c>
+      <c r="E449" s="2">
+        <v>1</v>
+      </c>
+      <c r="F449">
+        <v>287.31</v>
+      </c>
+      <c r="G449">
+        <v>56.76</v>
+      </c>
+      <c r="H449">
+        <v>276.5</v>
+      </c>
+      <c r="I449">
+        <v>56.24</v>
+      </c>
+      <c r="J449">
+        <v>202.73</v>
+      </c>
+      <c r="K449">
+        <v>38.31</v>
+      </c>
+      <c r="L449">
+        <v>917.84999999999991</v>
+      </c>
+      <c r="M449">
+        <v>917.84999999999991</v>
+      </c>
+      <c r="N449" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O449" t="s">
+        <v>27</v>
+      </c>
+      <c r="P449" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="450" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A450">
+        <v>202505</v>
+      </c>
+      <c r="B450" t="s">
+        <v>57</v>
+      </c>
+      <c r="C450" t="s">
+        <v>39</v>
+      </c>
+      <c r="D450" t="s">
+        <v>22</v>
+      </c>
+      <c r="E450" s="2">
+        <v>1</v>
+      </c>
+      <c r="F450">
+        <v>287.31</v>
+      </c>
+      <c r="G450">
+        <v>56.76</v>
+      </c>
+      <c r="H450">
+        <v>301.72000000000003</v>
+      </c>
+      <c r="I450">
+        <v>56.24</v>
+      </c>
+      <c r="J450">
+        <v>202.73</v>
+      </c>
+      <c r="K450">
+        <v>38.31</v>
+      </c>
+      <c r="L450">
+        <v>943.06999999999994</v>
+      </c>
+      <c r="M450">
+        <v>943.06999999999994</v>
+      </c>
+      <c r="N450" s="1">
+        <f t="shared" ref="N450:N454" si="7">G450-56.76</f>
+        <v>0</v>
+      </c>
+      <c r="O450" t="s">
+        <v>27</v>
+      </c>
+      <c r="P450" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="451" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A451">
+        <v>202505</v>
+      </c>
+      <c r="B451" t="s">
+        <v>57</v>
+      </c>
+      <c r="C451" t="s">
+        <v>39</v>
+      </c>
+      <c r="D451" t="s">
+        <v>23</v>
+      </c>
+      <c r="E451" s="2">
+        <v>2</v>
+      </c>
+      <c r="F451">
+        <v>287.31</v>
+      </c>
+      <c r="G451">
+        <v>56.76</v>
+      </c>
+      <c r="H451">
+        <v>206.27</v>
+      </c>
+      <c r="I451">
+        <v>24</v>
+      </c>
+      <c r="J451">
+        <v>166.72</v>
+      </c>
+      <c r="K451">
+        <v>38.31</v>
+      </c>
+      <c r="L451">
+        <v>779.37000000000012</v>
+      </c>
+      <c r="M451">
+        <v>779.37000000000012</v>
+      </c>
+      <c r="N451" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="N433" s="1">
-        <f t="shared" si="6"/>
-        <v>-56.76</v>
-      </c>
-      <c r="O433" t="s">
-        <v>27</v>
-      </c>
-      <c r="P433" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="434" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A434">
-        <v>202505</v>
-      </c>
-      <c r="B434" t="s">
-        <v>54</v>
-      </c>
-      <c r="C434" t="s">
-        <v>47</v>
-      </c>
-      <c r="D434" t="s">
-        <v>22</v>
-      </c>
-      <c r="E434" s="3">
-        <v>1</v>
-      </c>
-      <c r="L434">
+      <c r="O451" t="s">
+        <v>27</v>
+      </c>
+      <c r="P451" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="452" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A452">
+        <v>202505</v>
+      </c>
+      <c r="B452" t="s">
+        <v>57</v>
+      </c>
+      <c r="C452" t="s">
+        <v>39</v>
+      </c>
+      <c r="D452" t="s">
+        <v>23</v>
+      </c>
+      <c r="E452" s="2">
+        <v>3</v>
+      </c>
+      <c r="F452">
+        <v>287.31</v>
+      </c>
+      <c r="G452">
+        <v>56.76</v>
+      </c>
+      <c r="H452">
+        <v>90.89</v>
+      </c>
+      <c r="I452">
+        <v>18.350000000000001</v>
+      </c>
+      <c r="J452">
+        <v>144.02000000000001</v>
+      </c>
+      <c r="K452">
+        <v>38.31</v>
+      </c>
+      <c r="L452">
+        <v>635.6400000000001</v>
+      </c>
+      <c r="M452">
+        <v>635.6400000000001</v>
+      </c>
+      <c r="N452" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="N434" s="1">
-        <f t="shared" si="6"/>
-        <v>-56.76</v>
-      </c>
-      <c r="O434" t="s">
-        <v>27</v>
-      </c>
-      <c r="P434" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="435" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A435">
-        <v>202505</v>
-      </c>
-      <c r="B435" t="s">
-        <v>54</v>
-      </c>
-      <c r="C435" t="s">
-        <v>47</v>
-      </c>
-      <c r="D435" t="s">
-        <v>21</v>
-      </c>
-      <c r="E435" s="3">
+      <c r="O452" t="s">
+        <v>27</v>
+      </c>
+      <c r="P452" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="453" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A453">
+        <v>202505</v>
+      </c>
+      <c r="B453" t="s">
+        <v>58</v>
+      </c>
+      <c r="C453" t="s">
+        <v>36</v>
+      </c>
+      <c r="D453" t="s">
+        <v>19</v>
+      </c>
+      <c r="E453" s="2">
         <v>1</v>
       </c>
-      <c r="L435">
+      <c r="F453">
+        <v>294.2647</v>
+      </c>
+      <c r="G453">
+        <v>56.76</v>
+      </c>
+      <c r="H453">
+        <v>326.94529999999997</v>
+      </c>
+      <c r="I453">
+        <v>55.340699999999998</v>
+      </c>
+      <c r="J453">
+        <v>24.971</v>
+      </c>
+      <c r="K453">
+        <v>40.979399999999998</v>
+      </c>
+      <c r="L453">
+        <v>799.26109999999994</v>
+      </c>
+      <c r="M453">
+        <v>799.26109999999994</v>
+      </c>
+      <c r="N453" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="N435" s="1">
-        <f t="shared" si="6"/>
-        <v>-56.76</v>
-      </c>
-      <c r="O435" t="s">
-        <v>27</v>
-      </c>
-      <c r="P435" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="436" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A436">
-        <v>202505</v>
-      </c>
-      <c r="B436" t="s">
-        <v>54</v>
-      </c>
-      <c r="C436" t="s">
-        <v>47</v>
-      </c>
-      <c r="D436" t="s">
-        <v>23</v>
-      </c>
-      <c r="E436" s="3">
-        <v>2</v>
-      </c>
-      <c r="L436">
+      <c r="O453" t="s">
+        <v>27</v>
+      </c>
+      <c r="P453" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="454" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A454">
+        <v>202505</v>
+      </c>
+      <c r="B454" t="s">
+        <v>58</v>
+      </c>
+      <c r="C454" t="s">
+        <v>36</v>
+      </c>
+      <c r="D454" t="s">
+        <v>21</v>
+      </c>
+      <c r="E454" s="2">
+        <v>1</v>
+      </c>
+      <c r="F454">
+        <v>294.2647</v>
+      </c>
+      <c r="G454">
+        <v>56.76</v>
+      </c>
+      <c r="H454">
+        <v>280.11349999999999</v>
+      </c>
+      <c r="I454">
+        <v>55.340699999999998</v>
+      </c>
+      <c r="J454">
+        <v>24.971</v>
+      </c>
+      <c r="K454">
+        <v>40.979399999999998</v>
+      </c>
+      <c r="L454">
+        <v>752.42930000000001</v>
+      </c>
+      <c r="M454">
+        <v>752.42930000000001</v>
+      </c>
+      <c r="N454" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="N436" s="1">
-        <f t="shared" si="6"/>
-        <v>-56.76</v>
-      </c>
-      <c r="O436" t="s">
-        <v>27</v>
-      </c>
-      <c r="P436" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="437" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A437">
-        <v>202505</v>
-      </c>
-      <c r="B437" t="s">
-        <v>54</v>
-      </c>
-      <c r="C437" t="s">
-        <v>47</v>
-      </c>
-      <c r="D437" t="s">
-        <v>23</v>
-      </c>
-      <c r="E437" s="3">
-        <v>3</v>
-      </c>
-      <c r="L437">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N437" s="1">
-        <f t="shared" si="6"/>
-        <v>-56.76</v>
-      </c>
-      <c r="O437" t="s">
-        <v>27</v>
-      </c>
-      <c r="P437" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="438" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A438">
-        <v>202505</v>
-      </c>
-      <c r="B438" t="s">
-        <v>55</v>
-      </c>
-      <c r="C438" t="s">
-        <v>37</v>
-      </c>
-      <c r="D438" t="s">
-        <v>19</v>
-      </c>
-      <c r="E438" s="3">
-        <v>1</v>
-      </c>
-      <c r="L438">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N438" s="1">
-        <f t="shared" si="6"/>
-        <v>-56.76</v>
-      </c>
-      <c r="O438" t="s">
-        <v>27</v>
-      </c>
-      <c r="P438" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="439" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A439">
-        <v>202505</v>
-      </c>
-      <c r="B439" t="s">
-        <v>55</v>
-      </c>
-      <c r="C439" t="s">
-        <v>37</v>
-      </c>
-      <c r="D439" t="s">
-        <v>22</v>
-      </c>
-      <c r="E439" s="3">
-        <v>1</v>
-      </c>
-      <c r="L439">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N439" s="1">
-        <f t="shared" si="6"/>
-        <v>-56.76</v>
-      </c>
-      <c r="O439" t="s">
-        <v>27</v>
-      </c>
-      <c r="P439" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="440" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A440">
-        <v>202505</v>
-      </c>
-      <c r="B440" t="s">
-        <v>55</v>
-      </c>
-      <c r="C440" t="s">
-        <v>37</v>
-      </c>
-      <c r="D440" t="s">
-        <v>21</v>
-      </c>
-      <c r="E440" s="3">
-        <v>1</v>
-      </c>
-      <c r="L440">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N440" s="1">
-        <f t="shared" si="6"/>
-        <v>-56.76</v>
-      </c>
-      <c r="O440" t="s">
-        <v>27</v>
-      </c>
-      <c r="P440" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="441" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A441">
-        <v>202505</v>
-      </c>
-      <c r="B441" t="s">
-        <v>55</v>
-      </c>
-      <c r="C441" t="s">
-        <v>37</v>
-      </c>
-      <c r="D441" t="s">
-        <v>23</v>
-      </c>
-      <c r="E441" s="3">
-        <v>2</v>
-      </c>
-      <c r="L441">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N441" s="1">
-        <f t="shared" si="6"/>
-        <v>-56.76</v>
-      </c>
-      <c r="O441" t="s">
-        <v>27</v>
-      </c>
-      <c r="P441" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="442" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A442">
-        <v>202505</v>
-      </c>
-      <c r="B442" t="s">
-        <v>55</v>
-      </c>
-      <c r="C442" t="s">
-        <v>37</v>
-      </c>
-      <c r="D442" t="s">
-        <v>23</v>
-      </c>
-      <c r="E442" s="3">
-        <v>3</v>
-      </c>
-      <c r="L442">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N442" s="1">
-        <f t="shared" si="6"/>
-        <v>-56.76</v>
-      </c>
-      <c r="O442" t="s">
-        <v>27</v>
-      </c>
-      <c r="P442" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="443" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A443">
-        <v>202505</v>
-      </c>
-      <c r="B443" t="s">
-        <v>56</v>
-      </c>
-      <c r="C443" t="s">
-        <v>45</v>
-      </c>
-      <c r="D443" t="s">
-        <v>19</v>
-      </c>
-      <c r="E443" s="3">
-        <v>1</v>
-      </c>
-      <c r="L443">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N443" s="1">
-        <f t="shared" si="6"/>
-        <v>-56.76</v>
-      </c>
-      <c r="O443" t="s">
-        <v>27</v>
-      </c>
-      <c r="P443" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="444" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A444">
-        <v>202505</v>
-      </c>
-      <c r="B444" t="s">
-        <v>56</v>
-      </c>
-      <c r="C444" t="s">
-        <v>45</v>
-      </c>
-      <c r="D444" t="s">
-        <v>22</v>
-      </c>
-      <c r="E444" s="3">
-        <v>1</v>
-      </c>
-      <c r="L444">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N444" s="1">
-        <f t="shared" si="6"/>
-        <v>-56.76</v>
-      </c>
-      <c r="O444" t="s">
-        <v>27</v>
-      </c>
-      <c r="P444" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="445" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A445">
-        <v>202505</v>
-      </c>
-      <c r="B445" t="s">
-        <v>56</v>
-      </c>
-      <c r="C445" t="s">
-        <v>45</v>
-      </c>
-      <c r="D445" t="s">
-        <v>21</v>
-      </c>
-      <c r="E445" s="3">
-        <v>1</v>
-      </c>
-      <c r="L445">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N445" s="1">
-        <f t="shared" si="6"/>
-        <v>-56.76</v>
-      </c>
-      <c r="O445" t="s">
-        <v>27</v>
-      </c>
-      <c r="P445" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="446" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A446">
-        <v>202505</v>
-      </c>
-      <c r="B446" t="s">
-        <v>56</v>
-      </c>
-      <c r="C446" t="s">
-        <v>45</v>
-      </c>
-      <c r="D446" t="s">
-        <v>23</v>
-      </c>
-      <c r="E446" s="3">
-        <v>2</v>
-      </c>
-      <c r="L446">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N446" s="1">
-        <f t="shared" si="6"/>
-        <v>-56.76</v>
-      </c>
-      <c r="O446" t="s">
-        <v>27</v>
-      </c>
-      <c r="P446" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="447" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A447">
-        <v>202505</v>
-      </c>
-      <c r="B447" t="s">
-        <v>56</v>
-      </c>
-      <c r="C447" t="s">
-        <v>45</v>
-      </c>
-      <c r="D447" t="s">
-        <v>23</v>
-      </c>
-      <c r="E447" s="3">
-        <v>3</v>
-      </c>
-      <c r="L447">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N447" s="1">
-        <f t="shared" si="6"/>
-        <v>-56.76</v>
-      </c>
-      <c r="O447" t="s">
-        <v>27</v>
-      </c>
-      <c r="P447" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="448" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A448">
-        <v>202505</v>
-      </c>
-      <c r="B448" t="s">
-        <v>57</v>
-      </c>
-      <c r="C448" t="s">
-        <v>39</v>
-      </c>
-      <c r="D448" t="s">
-        <v>19</v>
-      </c>
-      <c r="E448" s="3">
-        <v>1</v>
-      </c>
-      <c r="L448">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N448" s="1">
-        <f t="shared" si="6"/>
-        <v>-56.76</v>
-      </c>
-      <c r="O448" t="s">
-        <v>27</v>
-      </c>
-      <c r="P448" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="449" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A449">
-        <v>202505</v>
-      </c>
-      <c r="B449" t="s">
-        <v>57</v>
-      </c>
-      <c r="C449" t="s">
-        <v>39</v>
-      </c>
-      <c r="D449" t="s">
-        <v>21</v>
-      </c>
-      <c r="E449" s="3">
-        <v>1</v>
-      </c>
-      <c r="L449">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N449" s="1">
-        <f t="shared" si="6"/>
-        <v>-56.76</v>
-      </c>
-      <c r="O449" t="s">
-        <v>27</v>
-      </c>
-      <c r="P449" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="450" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A450">
-        <v>202505</v>
-      </c>
-      <c r="B450" t="s">
-        <v>57</v>
-      </c>
-      <c r="C450" t="s">
-        <v>39</v>
-      </c>
-      <c r="D450" t="s">
-        <v>22</v>
-      </c>
-      <c r="E450" s="3">
-        <v>1</v>
-      </c>
-      <c r="L450">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N450" s="1">
-        <f t="shared" ref="N450:N454" si="9">G450-56.76</f>
-        <v>-56.76</v>
-      </c>
-      <c r="O450" t="s">
-        <v>27</v>
-      </c>
-      <c r="P450" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="451" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A451">
-        <v>202505</v>
-      </c>
-      <c r="B451" t="s">
-        <v>57</v>
-      </c>
-      <c r="C451" t="s">
-        <v>39</v>
-      </c>
-      <c r="D451" t="s">
-        <v>23</v>
-      </c>
-      <c r="E451" s="3">
-        <v>2</v>
-      </c>
-      <c r="L451">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N451" s="1">
-        <f t="shared" si="9"/>
-        <v>-56.76</v>
-      </c>
-      <c r="O451" t="s">
-        <v>27</v>
-      </c>
-      <c r="P451" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="452" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A452">
-        <v>202505</v>
-      </c>
-      <c r="B452" t="s">
-        <v>57</v>
-      </c>
-      <c r="C452" t="s">
-        <v>39</v>
-      </c>
-      <c r="D452" t="s">
-        <v>23</v>
-      </c>
-      <c r="E452" s="3">
-        <v>3</v>
-      </c>
-      <c r="L452">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N452" s="1">
-        <f t="shared" si="9"/>
-        <v>-56.76</v>
-      </c>
-      <c r="O452" t="s">
-        <v>27</v>
-      </c>
-      <c r="P452" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="453" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A453">
-        <v>202505</v>
-      </c>
-      <c r="B453" t="s">
-        <v>58</v>
-      </c>
-      <c r="C453" t="s">
-        <v>36</v>
-      </c>
-      <c r="D453" t="s">
-        <v>19</v>
-      </c>
-      <c r="E453" s="3">
-        <v>1</v>
-      </c>
-      <c r="L453">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N453" s="1">
-        <f t="shared" si="9"/>
-        <v>-56.76</v>
-      </c>
-      <c r="O453" t="s">
-        <v>27</v>
-      </c>
-      <c r="P453" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="454" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A454">
-        <v>202505</v>
-      </c>
-      <c r="B454" t="s">
-        <v>58</v>
-      </c>
-      <c r="C454" t="s">
-        <v>36</v>
-      </c>
-      <c r="D454" t="s">
-        <v>21</v>
-      </c>
-      <c r="E454" s="3">
-        <v>1</v>
-      </c>
-      <c r="L454">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N454" s="1">
-        <f t="shared" si="9"/>
-        <v>-56.76</v>
-      </c>
       <c r="O454" t="s">
         <v>27</v>
       </c>
@@ -23328,16 +23725,36 @@
       <c r="D455" t="s">
         <v>22</v>
       </c>
-      <c r="E455" s="3">
+      <c r="E455" s="2">
         <v>1</v>
       </c>
+      <c r="F455">
+        <v>294.2647</v>
+      </c>
+      <c r="G455">
+        <v>56.76</v>
+      </c>
+      <c r="H455">
+        <v>303.52940000000001</v>
+      </c>
+      <c r="I455">
+        <v>55.340699999999998</v>
+      </c>
+      <c r="J455">
+        <v>24.971</v>
+      </c>
+      <c r="K455">
+        <v>40.979399999999998</v>
+      </c>
       <c r="L455">
-        <f t="shared" si="7"/>
+        <v>775.84519999999998</v>
+      </c>
+      <c r="M455">
+        <v>775.84519999999998</v>
+      </c>
+      <c r="N455" s="1">
+        <f t="shared" ref="N455:N456" si="8">G455-56.76</f>
         <v>0</v>
-      </c>
-      <c r="N455" s="1">
-        <f t="shared" ref="N450:N456" si="10">G455-56.76</f>
-        <v>-56.76</v>
       </c>
       <c r="O455" t="s">
         <v>27</v>
@@ -23359,16 +23776,36 @@
       <c r="D456" t="s">
         <v>23</v>
       </c>
-      <c r="E456" s="3">
+      <c r="E456" s="2">
         <v>2</v>
       </c>
+      <c r="F456">
+        <v>294.2647</v>
+      </c>
+      <c r="G456">
+        <v>56.76</v>
+      </c>
+      <c r="H456">
+        <v>206.27440000000001</v>
+      </c>
+      <c r="I456">
+        <v>23.2288</v>
+      </c>
+      <c r="J456">
+        <v>24.971</v>
+      </c>
+      <c r="K456">
+        <v>40.979399999999998</v>
+      </c>
       <c r="L456">
-        <f t="shared" si="7"/>
+        <v>646.47829999999999</v>
+      </c>
+      <c r="M456">
+        <v>646.47829999999999</v>
+      </c>
+      <c r="N456" s="1">
+        <f t="shared" si="8"/>
         <v>0</v>
-      </c>
-      <c r="N456" s="1">
-        <f t="shared" si="10"/>
-        <v>-56.76</v>
       </c>
       <c r="O456" t="s">
         <v>27</v>
@@ -23390,16 +23827,36 @@
       <c r="D457" t="s">
         <v>23</v>
       </c>
-      <c r="E457" s="3">
+      <c r="E457" s="2">
         <v>3</v>
       </c>
+      <c r="F457">
+        <v>294.2647</v>
+      </c>
+      <c r="G457">
+        <v>56.76</v>
+      </c>
+      <c r="H457">
+        <v>90.887900000000002</v>
+      </c>
+      <c r="I457">
+        <v>20.369199999999999</v>
+      </c>
+      <c r="J457">
+        <v>24.971</v>
+      </c>
+      <c r="K457">
+        <v>40.979399999999998</v>
+      </c>
       <c r="L457">
-        <f t="shared" si="7"/>
+        <v>528.23219999999992</v>
+      </c>
+      <c r="M457">
+        <v>528.23219999999992</v>
+      </c>
+      <c r="N457" s="1">
+        <f t="shared" ref="N457" si="9">G457-56.76</f>
         <v>0</v>
-      </c>
-      <c r="N457" s="1">
-        <f t="shared" ref="N457" si="11">G457-56.76</f>
-        <v>-56.76</v>
       </c>
       <c r="O457" t="s">
         <v>27</v>
